--- a/Interviews_Columns/Consolidated-arranged.xlsx
+++ b/Interviews_Columns/Consolidated-arranged.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Period 3\LMS Project\Database and Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
   <si>
     <t>Column Name</t>
   </si>
@@ -71,12 +71,6 @@
     <t>student_id</t>
   </si>
   <si>
-    <t>student_first</t>
-  </si>
-  <si>
-    <t>student_last</t>
-  </si>
-  <si>
     <t>marks_of_tries</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>{skipped, correct, incorrect, started}</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>teacher_feedback</t>
   </si>
   <si>
@@ -173,12 +164,6 @@
     <t>User - 1</t>
   </si>
   <si>
-    <t>Student -2</t>
-  </si>
-  <si>
-    <t>Teacher - 3</t>
-  </si>
-  <si>
     <t>Course -4</t>
   </si>
   <si>
@@ -219,6 +204,18 @@
   </si>
   <si>
     <t>Student/Exercise - 12</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -296,19 +293,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,10 +592,10 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -613,31 +613,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="N1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="6"/>
+      <c r="L1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -646,18 +642,10 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,25 +669,17 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>47</v>
+      <c r="A3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
@@ -708,14 +688,14 @@
       <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>26</v>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>41</v>
+      <c r="N3" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="O3" t="s">
         <v>6</v>
@@ -723,46 +703,48 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" t="s">
         <v>7</v>
       </c>
@@ -773,19 +755,29 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" t="s">
         <v>8</v>
       </c>
@@ -797,37 +789,65 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="L15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -862,31 +882,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>28</v>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
@@ -894,32 +914,32 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>41</v>
+      <c r="L18" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="M18" t="s">
         <v>6</v>
@@ -927,25 +947,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M19" t="s">
         <v>4</v>
@@ -953,39 +973,39 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>36</v>
+      <c r="I21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="J21" t="s">
         <v>2</v>
@@ -993,16 +1013,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
@@ -1013,27 +1033,27 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
@@ -1041,7 +1061,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -1049,27 +1069,27 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="9" t="s">
-        <v>31</v>
+      <c r="F27" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="A28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -1082,30 +1102,30 @@
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>36</v>
+      <c r="F29" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>28</v>
+      <c r="A31" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1119,50 +1139,50 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
